--- a/medicine/Mort/Fantôme/Fantôme.xlsx
+++ b/medicine/Mort/Fantôme/Fantôme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fant%C3%B4me</t>
+          <t>Fantôme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un fantôme est une apparition, une vision ou une illusion, interprétée comme une manifestation surnaturelle d'une personne décédée.
-Les fantômes sont également appelés revenants, spectres ou, plus rarement, ombres[1]. Toutefois les termes ne sont pas rigoureusement synonymes : un revenant est l'apparition d'un mort connu, dans une apparence identique à celle qu'il avait de son vivant et qui se comporte comme un vivant, tandis qu'un fantôme est une image floue, lumineuse, brumeuse et inconsistante, qui paraît flotter au-dessus du sol[2],[3].
+Les fantômes sont également appelés revenants, spectres ou, plus rarement, ombres. Toutefois les termes ne sont pas rigoureusement synonymes : un revenant est l'apparition d'un mort connu, dans une apparence identique à celle qu'il avait de son vivant et qui se comporte comme un vivant, tandis qu'un fantôme est une image floue, lumineuse, brumeuse et inconsistante, qui paraît flotter au-dessus du sol,.
 Les fantômes peuvent prendre un nom spécifique en raison de leurs origines et de leurs caractéristiques, tels les lémures romains ou les wilis slaves. On qualifie souvent de « fantôme » le phénomène connu sous le nom de poltergeist, ou « esprit frappeur », qui se manifeste par des bruits et des déplacements inexplicables d'objets, et qui est généralement lié à la présence d'un enfant perturbé, mais n'implique pas de lien avec un défunt.
-Le terme « fantôme » est fréquemment associé à d'autres formes d'apparitions, telles qu'auto-stoppeuse fantôme, vaisseau fantôme ou dirigeable fantôme. Par extension, le terme est souvent ajouté à des noms de choses matérielles abandonnées (ville fantôme, stations fantômes du métro de Paris), disparues (membre fantôme, île fantôme), ou échappant à la perception directe (cabinet fantôme, énergie fantôme, alimentation fantôme), clandestines (détenus fantômes). Dans les archives et les bibliothèques, on laisse une « fiche fantôme » à la place d'un document retiré d'un fonds jusqu'à son retour[4].
+Le terme « fantôme » est fréquemment associé à d'autres formes d'apparitions, telles qu'auto-stoppeuse fantôme, vaisseau fantôme ou dirigeable fantôme. Par extension, le terme est souvent ajouté à des noms de choses matérielles abandonnées (ville fantôme, stations fantômes du métro de Paris), disparues (membre fantôme, île fantôme), ou échappant à la perception directe (cabinet fantôme, énergie fantôme, alimentation fantôme), clandestines (détenus fantômes). Dans les archives et les bibliothèques, on laisse une « fiche fantôme » à la place d'un document retiré d'un fonds jusqu'à son retour.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fant%C3%B4me</t>
+          <t>Fantôme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom « fantôme » dérive du grec ancien φάντασμα / phántasma, transcrit en phantasma en latin. Il a été ensuite repris d'une version méridionale fantauma, pour se fixer en fantosme au XIIe siècle, puis ultérieurement en fantôme par transposition classique du sens. Ses origines sont identiques à celles de fantasme. Il désigne initialement une illusion avant de prendre, en 1165, son sens courant actuel[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom « fantôme » dérive du grec ancien φάντασμα / phántasma, transcrit en phantasma en latin. Il a été ensuite repris d'une version méridionale fantauma, pour se fixer en fantosme au XIIe siècle, puis ultérieurement en fantôme par transposition classique du sens. Ses origines sont identiques à celles de fantasme. Il désigne initialement une illusion avant de prendre, en 1165, son sens courant actuel.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fant%C3%B4me</t>
+          <t>Fantôme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Apparence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le professeur Charles Richet : « les fantômes, sauf de rarissimes apparitions d’animaux, ont une forme humaine, vêtus des vêtements qu’ils portaient à l’époque de leur vie terrestre. Tantôt ils ont l’apparence parfaite de la vie, tantôt ils sont transparents et nuageux comme des ombres ; généralement ils semblent entrer par une porte, et poursuivre leur route jusqu’à une autre chambre, où ils disparaissent. Souvent ils naissent à l’improviste et se résolvent en vapeur, en passant à travers les murs et les portes closes. Tantôt ils marchent, tantôt ils sont comme suspendus dans l’air. L’arrivée du fantôme se révèle presque toujours par un vague sentiment d’horreur, la sensation d’une présence, coïncidant avec un souffle glacé : presque toujours ils semblent être totalement indifférents aux personnes vivantes qui sont là à les regarder. Parfois ils se livrent à quelque occupation domestique, parfois ils font des gestes désespérés. On observe de grandes différences dans leur allure[6]. »
-La tradition voudrait que les apparitions soient vêtues de blanc, au motif probable que les défunts reviennent, assez logiquement, enveloppés dans le linceul dans lequel ils ont été inhumés. En fait, toutes les tenues ou presque sont recensées, à l'exception notoire de la nudité qui est rarissime. Les revenants revêtent le plus souvent le costume qu'ils portaient habituellement de leur vivant. Pour expliquer ce fait, Frank Podmore, membre du comité directeur de la Society for Psychical Research  britannique (SPR)[N 1], a avancé que les apparitions, n'existant que dans l'esprit du visionnaire, celui-ci leur faisait porter la tenue qui lui paraissait convenir au personnage[7].
-L'image classique du fantôme traînant des chaînes est due à l'antique description de Pline le jeune (voir ci-dessous) et ne figure pratiquement jamais dans les récits ultérieurs. Le linceul blanc n'est apparu dans l'iconographie médiévale qu'à partir du XIIIe siècle[8] et s'est répandu au XIVe siècle[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le professeur Charles Richet : « les fantômes, sauf de rarissimes apparitions d’animaux, ont une forme humaine, vêtus des vêtements qu’ils portaient à l’époque de leur vie terrestre. Tantôt ils ont l’apparence parfaite de la vie, tantôt ils sont transparents et nuageux comme des ombres ; généralement ils semblent entrer par une porte, et poursuivre leur route jusqu’à une autre chambre, où ils disparaissent. Souvent ils naissent à l’improviste et se résolvent en vapeur, en passant à travers les murs et les portes closes. Tantôt ils marchent, tantôt ils sont comme suspendus dans l’air. L’arrivée du fantôme se révèle presque toujours par un vague sentiment d’horreur, la sensation d’une présence, coïncidant avec un souffle glacé : presque toujours ils semblent être totalement indifférents aux personnes vivantes qui sont là à les regarder. Parfois ils se livrent à quelque occupation domestique, parfois ils font des gestes désespérés. On observe de grandes différences dans leur allure. »
+La tradition voudrait que les apparitions soient vêtues de blanc, au motif probable que les défunts reviennent, assez logiquement, enveloppés dans le linceul dans lequel ils ont été inhumés. En fait, toutes les tenues ou presque sont recensées, à l'exception notoire de la nudité qui est rarissime. Les revenants revêtent le plus souvent le costume qu'ils portaient habituellement de leur vivant. Pour expliquer ce fait, Frank Podmore, membre du comité directeur de la Society for Psychical Research  britannique (SPR)[N 1], a avancé que les apparitions, n'existant que dans l'esprit du visionnaire, celui-ci leur faisait porter la tenue qui lui paraissait convenir au personnage.
+L'image classique du fantôme traînant des chaînes est due à l'antique description de Pline le jeune (voir ci-dessous) et ne figure pratiquement jamais dans les récits ultérieurs. Le linceul blanc n'est apparu dans l'iconographie médiévale qu'à partir du XIIIe siècle et s'est répandu au XIVe siècle.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fant%C3%B4me</t>
+          <t>Fantôme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,12 @@
           <t>Croyance aux fantômes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon divers sondages effectués dans le monde depuis 1980, il apparaît que la croyance à l'existence des fantômes est largement répandue dans la population, tout en variant fortement selon les pays : 13 % en France (2000)[10], 21 % au Québec (2001)[11], 50 % chez les Chinois de Hong Kong (1981)[12], 51 % aux États-Unis (2009)[10] (18 % disent en avoir déjà rencontré[13]), 52 % au Royaume-Uni (2013)[14].
-Un sondage réalisé en 1991 chez les jeunes français âgés de 8 à 16 ans indiquait que 16 % estimaient « que les fantômes peuvent exister »[15]. Dans certains pays, tel la Thaïlande, la croyance aux fantômes est quasi générale[16]. Il semble que l'opinion de nombre de personnes pourrait se résumer à la savoureuse réponse de Madame du Deffand : « Est-ce que je crois aux fantômes ? Non, mais j'en ai peur ! »[17].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon divers sondages effectués dans le monde depuis 1980, il apparaît que la croyance à l'existence des fantômes est largement répandue dans la population, tout en variant fortement selon les pays : 13 % en France (2000), 21 % au Québec (2001), 50 % chez les Chinois de Hong Kong (1981), 51 % aux États-Unis (2009) (18 % disent en avoir déjà rencontré), 52 % au Royaume-Uni (2013).
+Un sondage réalisé en 1991 chez les jeunes français âgés de 8 à 16 ans indiquait que 16 % estimaient « que les fantômes peuvent exister ». Dans certains pays, tel la Thaïlande, la croyance aux fantômes est quasi générale. Il semble que l'opinion de nombre de personnes pourrait se résumer à la savoureuse réponse de Madame du Deffand : « Est-ce que je crois aux fantômes ? Non, mais j'en ai peur ! ».
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fant%C3%B4me</t>
+          <t>Fantôme</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,15 +630,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dualité et retour de morts
-La plupart des traditions, des religions et des philosophies considèrent que l'être humain est composé d'un corps mortel et d'une âme immortelle ou encore, d'un corps, d'un esprit et d'une âme. l'Égypte antique avait une conception de l'être beaucoup plus complexe, mais distinguait entre autres le corps (djet) et l'âme (bâ). On retrouve une pensée analogue dans la plupart des civilisations du monde, avec des liens plus ou moins établis entre les notions d'âme, d'esprit, d'ombre ou de double[18],[19].
+          <t>Dualité et retour de morts</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des traditions, des religions et des philosophies considèrent que l'être humain est composé d'un corps mortel et d'une âme immortelle ou encore, d'un corps, d'un esprit et d'une âme. l'Égypte antique avait une conception de l'être beaucoup plus complexe, mais distinguait entre autres le corps (djet) et l'âme (bâ). On retrouve une pensée analogue dans la plupart des civilisations du monde, avec des liens plus ou moins établis entre les notions d'âme, d'esprit, d'ombre ou de double,.
 Le thème de morts revenant hanter les vivants est aussi ancien qu'universel. Le bâ égyptien possède la faculté de se manifester sur le plan terrestre pour venger le défunt.
-Racines antiques
-En 2021, le docteur Irving Finkel, conservateur du département du Moyen-Orient au British museum, a déchiffré une tablette d'argile datant d'il y a 35 siècles, acquise par le musée au XIXe siècle. Au recto, on voit une femme entravée tirée par un jeune homme, qui serait son jeune amant, chargé de la guider dans l'au-delà. Au verso, en écriture cunéiforme, figurent des rituels et des incantations censées permettre de libérer son fantôme. Pour le docteur Finkel, les Babyloniens estimaient que les défunts risquaient de revenir hanter les vivants s'ils n'avaient pas été inhumés en suivant les rituels appropriés[20],[21].
-En Occident, on trouve la trace du mythe des fantômes dès l'Antiquité : Ulysse dialogue avec eux[N 2] dans le chant XI de l'Odyssée à la fin du VIIIe siècle av. J.-C., et ils ont un rôle dans les tragédies Électre et Ajax, écrites par Sophocle au IVe siècle av. J.-C. : « Je vois bien que nous ne sommes, nous tous qui vivons ici, rien de plus que des fantômes ou que des ombres légères[22]. »
-Un des plus anciens récits concret qui nous soit parvenu, est dû à Pline le Jeune (61-114). Pour demander son avis à son ami Sura sur l'existence des fantômes, il relate dans une de ses Lettres l'incident survenu au philosophe Athénodore le Cananite, dans une maison qu'il venait de louer à très bon marché car elle était hantée par un terrible spectre qui faisait fuir ses habitants[23] : « dans le silence de la nuit, on entendait un froissement de fers, et, en écoutant avec attention, le retentissement de chaînes agitées. Le bruit semblait d'abord venir de loin, et ensuite s'approcher ; bientôt apparaissait le spectre : c'était un vieillard maigre et hideux, à la barbe longue, aux cheveux hérissés; ses pieds et ses mains étaient chargés de fers qu'il secouait. »
-Athénodore s'installe dans la maison et attend l'arrivée du fantôme. Celui-ci ne tarde pas à se manifester bruyamment et l'invite à le suivre : « le fantôme marchait d'un pas lent ; il semblait accablé par le poids des chaînes. Arrivé dans la cour de la maison, il s'évanouit tout à coup aux yeux du philosophe. Celui-ci marque le lieu où il a disparu par un amas d'herbes et de feuilles. Le lendemain, il va trouver les magistrats et leur demande de faire fouiller en cet endroit. On trouve des ossements encore enlacés dans des chaînes, le corps, consumé par le temps et par la terre, n'avait laissé aux fers que ces restes nus et dépouillés. On les rassemble, on les ensevelit publiquement et, après ces derniers devoirs, le mort ne troubla plus le repos de la maison. »
-Hantises et apparitions sont des évènements qui sont signalés en tous temps et en tous lieux, non seulement chez les Grecs et les Romains de l'Antiquité, mais aussi dans toute l'Europe médiévale, et ce jusqu'à nos jours.
 </t>
         </is>
       </c>
@@ -631,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fant%C3%B4me</t>
+          <t>Fantôme</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,115 +663,781 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Typologie</t>
+          <t>Origines</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Malgré les propositions du chercheur britannique Hylary Evens[24], il n'existe pas de classification universellement reconnue des apparitions fantomatiques. On peut toutefois en distinguer les principales catégories. Dans le système de classification de Vallée, les poltergeists sont des « anomalies à effets physiques » de type AN-II, tandis que les fantômes sont des « entités » relevant du type AN-III.
-Poltergeists
-Les poltergeists, ou esprit frappeurs, sont souvent qualifiés de « fantômes », bien qu'ils constituent une catégorie particulière. « On regroupe traditionnellement toutes ces manifestations sous le terme générique de petite hantise, qui diffère de la grande en ce quelle exclut les apparitions, les revenants, les fantômes[25]. ».
+          <t>Racines antiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, le docteur Irving Finkel, conservateur du département du Moyen-Orient au British museum, a déchiffré une tablette d'argile datant d'il y a 35 siècles, acquise par le musée au XIXe siècle. Au recto, on voit une femme entravée tirée par un jeune homme, qui serait son jeune amant, chargé de la guider dans l'au-delà. Au verso, en écriture cunéiforme, figurent des rituels et des incantations censées permettre de libérer son fantôme. Pour le docteur Finkel, les Babyloniens estimaient que les défunts risquaient de revenir hanter les vivants s'ils n'avaient pas été inhumés en suivant les rituels appropriés,.
+En Occident, on trouve la trace du mythe des fantômes dès l'Antiquité : Ulysse dialogue avec eux[N 2] dans le chant XI de l'Odyssée à la fin du VIIIe siècle av. J.-C., et ils ont un rôle dans les tragédies Électre et Ajax, écrites par Sophocle au IVe siècle av. J.-C. : « Je vois bien que nous ne sommes, nous tous qui vivons ici, rien de plus que des fantômes ou que des ombres légères. »
+Un des plus anciens récits concret qui nous soit parvenu, est dû à Pline le Jeune (61-114). Pour demander son avis à son ami Sura sur l'existence des fantômes, il relate dans une de ses Lettres l'incident survenu au philosophe Athénodore le Cananite, dans une maison qu'il venait de louer à très bon marché car elle était hantée par un terrible spectre qui faisait fuir ses habitants : « dans le silence de la nuit, on entendait un froissement de fers, et, en écoutant avec attention, le retentissement de chaînes agitées. Le bruit semblait d'abord venir de loin, et ensuite s'approcher ; bientôt apparaissait le spectre : c'était un vieillard maigre et hideux, à la barbe longue, aux cheveux hérissés; ses pieds et ses mains étaient chargés de fers qu'il secouait. »
+Athénodore s'installe dans la maison et attend l'arrivée du fantôme. Celui-ci ne tarde pas à se manifester bruyamment et l'invite à le suivre : « le fantôme marchait d'un pas lent ; il semblait accablé par le poids des chaînes. Arrivé dans la cour de la maison, il s'évanouit tout à coup aux yeux du philosophe. Celui-ci marque le lieu où il a disparu par un amas d'herbes et de feuilles. Le lendemain, il va trouver les magistrats et leur demande de faire fouiller en cet endroit. On trouve des ossements encore enlacés dans des chaînes, le corps, consumé par le temps et par la terre, n'avait laissé aux fers que ces restes nus et dépouillés. On les rassemble, on les ensevelit publiquement et, après ces derniers devoirs, le mort ne troubla plus le repos de la maison. »
+Hantises et apparitions sont des évènements qui sont signalés en tous temps et en tous lieux, non seulement chez les Grecs et les Romains de l'Antiquité, mais aussi dans toute l'Europe médiévale, et ce jusqu'à nos jours.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fantôme</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fant%C3%B4me</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malgré les propositions du chercheur britannique Hylary Evens, il n'existe pas de classification universellement reconnue des apparitions fantomatiques. On peut toutefois en distinguer les principales catégories. Dans le système de classification de Vallée, les poltergeists sont des « anomalies à effets physiques » de type AN-II, tandis que les fantômes sont des « entités » relevant du type AN-III.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fantôme</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fant%C3%B4me</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Poltergeists</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les poltergeists, ou esprit frappeurs, sont souvent qualifiés de « fantômes », bien qu'ils constituent une catégorie particulière. « On regroupe traditionnellement toutes ces manifestations sous le terme générique de petite hantise, qui diffère de la grande en ce quelle exclut les apparitions, les revenants, les fantômes. ».
 Il s'agit essentiellement de mouvements d'objets inexplicables, de jets de pierres, de bruits sans cause physique apparente, de perturbations des appareillages électriques, de lumières, de départs de feux, etc. Les apparitions de formes floues sont très rares, ainsi que la référence possible à un ou plusieurs défunts. Ces phénomènes seraient le plus souvent liés à la présence d'un ou d'une adolescent(e) perturbé(e).[pas clair]
-La Parapsychological Association qui regroupe des chercheurs issus de divers continents donne des informations sur ce phénomène[26].
-Revenants
-Claude Lecouteux distingue les « vrais » revenants, défunts qui décident délibérément de revenir pour diverses raisons, par opposition aux « faux » revenants, constitués par des morts dont la présence semble perdurer quelque temps après leur décès, comme s'ils n'arrivaient pas à disparaître définitivement, ou bien tirés de l'au-delà pour défendre leur sépulture ou répondre à un appel de nécromancie[27].
-Vrais revenants
-Pour Xavier Yvanoff, « le revenant est un mort qui apparaît revêtu de son enveloppe corporelle. Il est rarement anonyme. C'est un mort que l'on a connu au village et qui « revient » en chair et en os pour se présenter devant les vivants, le plus souvent à l'endroit où il a vécu. Physiquement, il possède le même corps qu'un vivant. C'est parfois à s'y méprendre et sa pâleur supposée est une idée fausse[28]. » On peut a priori classer dans cette catégorie les Auto-stoppeuses fantômes, si toutefois elles ne sont pas seulement légendaires, qui paraissent suffisamment réelles pour être prises en stop par des automobilistes abusés.
-Faux revenants
-Selon plusieurs récits légendaires du Moyen Âge, il arrive que des morts récents se manifestent et semblent refuser de se laisser mener au tombeau. Selon une tradition largement partagée, les morts « habitent » leurs tombeaux et il est malvenu de les y déranger. Il arrive que le défunt manifeste lui-même son mécontentement et menace l'intrus de l'amener à le rejoindre[29].
-Une autre catégorie concerne les défunts qui sont contraints de revenir parmi les vivants à cause d'opérations de nécromancie. Dans son roman Métamorphoses écrit au IIe siècle, Apulée fait le récit d'un prophète égyptien qui fait revenir un cadavre à la vie : « Il y a ici un Égyptien nommé Zatchlas, prophète du premier ordre. Dès longtemps il s'est engagé avec moi, au prix d'une somme considérable, à évoquer temporairement une âme du fond des enfers, et à lui faire animer de nouveau le corps qu'elle aurait quitté[30]. » « Un léger soulèvement se manifeste vers la poitrine du mort, son pouls recommence à battre, ses poumons à jouer ; le cadavre se met sur son séant ; la voix du jeune homme se fait entendre : J'avais déjà bu l'eau du Léthé, dit-il, et presque franchi les marais du Styx. Pourquoi me rengager dans les tristes devoirs de cette vie éphémère ? Cessez, cessez, de grâce, et me rendez à mon repos. Ainsi parla le cadavre[31]. »
+La Parapsychological Association qui regroupe des chercheurs issus de divers continents donne des informations sur ce phénomène.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fantôme</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fant%C3%B4me</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Revenants</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Lecouteux distingue les « vrais » revenants, défunts qui décident délibérément de revenir pour diverses raisons, par opposition aux « faux » revenants, constitués par des morts dont la présence semble perdurer quelque temps après leur décès, comme s'ils n'arrivaient pas à disparaître définitivement, ou bien tirés de l'au-delà pour défendre leur sépulture ou répondre à un appel de nécromancie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fantôme</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fant%C3%B4me</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Revenants</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Vrais revenants</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour Xavier Yvanoff, « le revenant est un mort qui apparaît revêtu de son enveloppe corporelle. Il est rarement anonyme. C'est un mort que l'on a connu au village et qui « revient » en chair et en os pour se présenter devant les vivants, le plus souvent à l'endroit où il a vécu. Physiquement, il possède le même corps qu'un vivant. C'est parfois à s'y méprendre et sa pâleur supposée est une idée fausse. » On peut a priori classer dans cette catégorie les Auto-stoppeuses fantômes, si toutefois elles ne sont pas seulement légendaires, qui paraissent suffisamment réelles pour être prises en stop par des automobilistes abusés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fantôme</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fant%C3%B4me</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Revenants</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Faux revenants</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon plusieurs récits légendaires du Moyen Âge, il arrive que des morts récents se manifestent et semblent refuser de se laisser mener au tombeau. Selon une tradition largement partagée, les morts « habitent » leurs tombeaux et il est malvenu de les y déranger. Il arrive que le défunt manifeste lui-même son mécontentement et menace l'intrus de l'amener à le rejoindre.
+Une autre catégorie concerne les défunts qui sont contraints de revenir parmi les vivants à cause d'opérations de nécromancie. Dans son roman Métamorphoses écrit au IIe siècle, Apulée fait le récit d'un prophète égyptien qui fait revenir un cadavre à la vie : « Il y a ici un Égyptien nommé Zatchlas, prophète du premier ordre. Dès longtemps il s'est engagé avec moi, au prix d'une somme considérable, à évoquer temporairement une âme du fond des enfers, et à lui faire animer de nouveau le corps qu'elle aurait quitté. » « Un léger soulèvement se manifeste vers la poitrine du mort, son pouls recommence à battre, ses poumons à jouer ; le cadavre se met sur son séant ; la voix du jeune homme se fait entendre : J'avais déjà bu l'eau du Léthé, dit-il, et presque franchi les marais du Styx. Pourquoi me rengager dans les tristes devoirs de cette vie éphémère ? Cessez, cessez, de grâce, et me rendez à mon repos. Ainsi parla le cadavre. »
 Selon une ancienne légende polonaise du XVIe siècle, un sorcier du nom de Pan Twardowski qui, tel Faust, aurait vendu son âme au diable en échange de pouvoirs surnaturels, réalisa l'apparition de la défunte reine de Pologne Barbara Radziwiłł à la demande de son époux, le roi Sigismond II.
-Ectoplasmes
-Le spiritisme est considéré comme une forme contemporaine d'invocation de l'esprit des défunts et, à ce titre, l'héritier d'une tradition de nécromancie qui remonte à l'Antiquité. Les communications se font par l'intermédiaire d'un ou plusieurs médiums et à l'aide de diverses techniques telles que la psychographie directe et indirecte. Ces communications se doivent d'être sérieuses et utiles à son prochain, la « philosophie spirite » rejette catégoriquement tout ce « spiritisme spectacle » qui est le propre de prestidigitateurs recherchant la célébrité en utilisant le spiritisme alors en vogue à l'époque[32].
-En effet, vers la fin du XIXe siècle, se développe de plus en plus la prestidigitation de music-hall et de nombreux illusionnistes profitent de la mode du spiritisme pour se faire « un nom » et devenir célèbres. Parmi ces différentes pseudo-manifestations de « spiritisme spectacle », on pouvait voir la prétendue matérialisation d'une substance, de nature indéterminée appelée ectoplasme, qui pouvait prendre des formes variées, censées représenter la manifestation d'un défunt. À l’évidence, les apparitions des supposés revenants ectoplasmiques étaient souvent constituées de morceaux de gaze ou de tissus légers entourant des photographies ou des dessins[33]. Beaucoup de pseudo-médium ont été surpris en pleine fraude manifeste, comme Florence Cook qui réussissait à provoquer, par trucage, la manifestation d'un ectoplasme extrêmement réaliste, on pouvait le toucher et même lui prendre le pouls, appelé « Katie King », qui n'était autre que Florence Cook elle-même déguisée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fantôme</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fant%C3%B4me</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Revenants</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Ectoplasmes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spiritisme est considéré comme une forme contemporaine d'invocation de l'esprit des défunts et, à ce titre, l'héritier d'une tradition de nécromancie qui remonte à l'Antiquité. Les communications se font par l'intermédiaire d'un ou plusieurs médiums et à l'aide de diverses techniques telles que la psychographie directe et indirecte. Ces communications se doivent d'être sérieuses et utiles à son prochain, la « philosophie spirite » rejette catégoriquement tout ce « spiritisme spectacle » qui est le propre de prestidigitateurs recherchant la célébrité en utilisant le spiritisme alors en vogue à l'époque.
+En effet, vers la fin du XIXe siècle, se développe de plus en plus la prestidigitation de music-hall et de nombreux illusionnistes profitent de la mode du spiritisme pour se faire « un nom » et devenir célèbres. Parmi ces différentes pseudo-manifestations de « spiritisme spectacle », on pouvait voir la prétendue matérialisation d'une substance, de nature indéterminée appelée ectoplasme, qui pouvait prendre des formes variées, censées représenter la manifestation d'un défunt. À l’évidence, les apparitions des supposés revenants ectoplasmiques étaient souvent constituées de morceaux de gaze ou de tissus légers entourant des photographies ou des dessins. Beaucoup de pseudo-médium ont été surpris en pleine fraude manifeste, comme Florence Cook qui réussissait à provoquer, par trucage, la manifestation d'un ectoplasme extrêmement réaliste, on pouvait le toucher et même lui prendre le pouls, appelé « Katie King », qui n'était autre que Florence Cook elle-même déguisée.
 Les ectoplasmes se distinguent fondamentalement des fantômes dans la mesure où, exclusivement émis par le corps du médium, ils n'ont aucune autonomie, et disparaissent dès sa sortie de transe.
-Fantômes
-Les fantômes sont des apparitions, d'une forme généralement humaine (très rarement animale), entière ou partielle, ou des phénomènes lumineux telles des lueurs colorées, masses noires...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fantôme</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fant%C3%B4me</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fantômes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fantômes sont des apparitions, d'une forme généralement humaine (très rarement animale), entière ou partielle, ou des phénomènes lumineux telles des lueurs colorées, masses noires...
 La majorité des ouvrages portant sur les cas d'apparitions relatent que la majorité des témoignages ne font pas mention de formes floues ou diffuses : les descriptions sont pour la plupart précises et détaillées comme le mentionne entre autres Camille Flammarion dans Fantômes et sciences d'observation et la plupart des parapsychologues : observations assez détaillées pour reconnaître un homme, une femme, les vêtements qu'ils portent, corpulence...
 La perception des fantômes est souvent influencée par la culture et la Pop Culture.
-Par exemple le cliché du fantôme vu exclusivement pendant la nuit est un mythe. Depuis 1880, les observations d'apparitions sont relatées à n'importe quels moments de la journée comme le rappelle le parapsychologue Loyd Auerbach[34].
+Par exemple le cliché du fantôme vu exclusivement pendant la nuit est un mythe. Depuis 1880, les observations d'apparitions sont relatées à n'importe quels moments de la journée comme le rappelle le parapsychologue Loyd Auerbach.
 Il en est de même pour les clichés relatifs aux cimetières et aux châteaux. Les fantômes qui hantent les vieilles demeures sont également un mythe : ces phénomènes se produisent n'importent où. Néanmoins ce mythe est véhiculé par de nombreuses émission de type "chasseur de fantômes".
-En parapsychologie, les cas d’apparitions valables sont ceux vus par plusieurs témoins, se répétant au fil du temps et qui s'accompagnent d'effets physiques[35].
-Ces phénomènes sont parfois vus par plusieurs personnes simultanément mais, dans quelques cas, avec des différences dans les détails observés[36].
+En parapsychologie, les cas d’apparitions valables sont ceux vus par plusieurs témoins, se répétant au fil du temps et qui s'accompagnent d'effets physiques.
+Ces phénomènes sont parfois vus par plusieurs personnes simultanément mais, dans quelques cas, avec des différences dans les détails observés.
 Il arrive que ces manifestations se répètent aux mêmes endroits, sans que l'on puisse déterminer, faute de preuve définitive avec certitude le personnage dont il pourrait s'agir, ni du motif de sa localisation dans un lieu précis. Les parapsychologues utilisent alors le terme « d'apparition récurrente localisée ».
-Dans de nombreux cas, les témoins disent ne pas avoir été effrayés par l'apparition elle-même, mais s'inquiètent du sens qu'elle pourrait éventuellement avoir, pour eux ou leurs proches, tel l'annonce d'un décès[37]. C'est le rôle qui est traditionnellement tenu par certaines dames blanches. Pour Érasme : « Un des faits les plus connus demeure l’apparition de la dame blanche aux familles princières[38]. »
-Dames blanches
-Parmi les différentes sortes de dames blanches, certaines entrent incontestablement dans la catégorie des fantômes. Ce sont :
+Dans de nombreux cas, les témoins disent ne pas avoir été effrayés par l'apparition elle-même, mais s'inquiètent du sens qu'elle pourrait éventuellement avoir, pour eux ou leurs proches, tel l'annonce d'un décès. C'est le rôle qui est traditionnellement tenu par certaines dames blanches. Pour Érasme : « Un des faits les plus connus demeure l’apparition de la dame blanche aux familles princières. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fantôme</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fant%C3%B4me</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Dames blanches</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Parmi les différentes sortes de dames blanches, certaines entrent incontestablement dans la catégorie des fantômes. Ce sont :
 les dames blanches annonciatrices d'événements généralement funestes ou, plus rarement, heureux ;
 les lavandières de la nuit, souvent considérées comme des revenantes condamnées à expier leurs fautes passées ;
-les auto-stoppeuses fantôme, qui sont le plus souvent les spectres de jeunes femmes décédées d'un accident de la route.
-Apparitions de crise
-Dans certaines circonstances particulièrement dramatiques, telles que l'accident ou l'agonie d'une personne, il arriverait parfois que son fantôme apparaisse instantanément à ses proches[39]. Dans une étude publiée en Angleterre en 1886 et portant sur 17 000 personnes, les chercheurs posaient comme hypothèse qu'il s'agissait d'un message télépathique, émis involontairement par la victime, et reçu par le destinataire sous la forme d'une hallucination[40].
-Dans une lettre adressée à Camille Flammarion en 1896, le jeune compositeur André Bloch relate, qu'alors que lui et sa mère séjournaient à Rome, cette dernière vit apparaître à côté d'elle son jeune neveu René Kraemer, âgé de 14 ans, qui la regardait en riant tout en lui disant : « mais oui, je suis bien mort ». De retour à Paris quinze jours plus tard, ils eurent la confirmation de la nouvelle de son décès qui s'était produit au moment précis de la vision[41].
-Fantômes de vivants
-C'est le titre original anglais (Phantasms of the Living) d'un ouvrage, rédigé en 1886 et paru en France en 1891 sous le titre modifié « Les hallucinations télépathiques »[40], rédigé par Frederic Myers et Edmund Gurney, avec la participation de Frank Podmore, tous trois membres de la Society for Psychical Research anglaise.
-Il arrive parfois, qu'en dehors de tout motif grave, des individus apparaissent à leurs proches, ou dans des lieux qui leur sont familiers, tout en étant physiquement à des distances considérables. Une telle aventure est survenue à Goethe : un jour qu'il se promenait sur une route avec un ami, il eut la surprise de rencontrer un autre ami du nom de Frédéric. Il l'interpella, mais celui-ci disparut sans répondre. De retour à son domicile, Goethe eut la surprise d'y trouver ledit Frédéric qui, assoupit, lui dit avoir rêvé leur rencontre sur la route[42].
-Ce phénomène de dédoublement est connu sous le nom de bilocation lorsqu'il concerne des mystiques, des bienheureux ou des saint tel le Padre Pio[43]. Pour les ésotéristes, il pourrait s'agir de cas de dédoublement astral, le corps astral étant perçu exceptionnellement par des tiers.
-Vision de son propre double
-Un autre phénomène consiste en la vision de son propre corps sous la forme d'un double fantomatique fréquemment transparent[44]. Cette hallucination est connue sous le nom allemand de Doppelgänger et est considérée en neurologie comme un phénomène autoscopique. Il semble que ce soit une expérience de ce type que relate Guy de Maupassant dans sa nouvelle Lui ?, présentée comme une lettre à un ami[45].
-Armées fantômes
-De nombreuses légendes circulent au sujet de prétendues armées de fantômes, se manifestant sur des champs de bataille ou des lieux au passé historique :
+les auto-stoppeuses fantôme, qui sont le plus souvent les spectres de jeunes femmes décédées d'un accident de la route.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fantôme</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fant%C3%B4me</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Apparitions de crise</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans certaines circonstances particulièrement dramatiques, telles que l'accident ou l'agonie d'une personne, il arriverait parfois que son fantôme apparaisse instantanément à ses proches. Dans une étude publiée en Angleterre en 1886 et portant sur 17 000 personnes, les chercheurs posaient comme hypothèse qu'il s'agissait d'un message télépathique, émis involontairement par la victime, et reçu par le destinataire sous la forme d'une hallucination.
+Dans une lettre adressée à Camille Flammarion en 1896, le jeune compositeur André Bloch relate, qu'alors que lui et sa mère séjournaient à Rome, cette dernière vit apparaître à côté d'elle son jeune neveu René Kraemer, âgé de 14 ans, qui la regardait en riant tout en lui disant : « mais oui, je suis bien mort ». De retour à Paris quinze jours plus tard, ils eurent la confirmation de la nouvelle de son décès qui s'était produit au moment précis de la vision.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fantôme</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fant%C3%B4me</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Fantômes de vivants</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le titre original anglais (Phantasms of the Living) d'un ouvrage, rédigé en 1886 et paru en France en 1891 sous le titre modifié « Les hallucinations télépathiques », rédigé par Frederic Myers et Edmund Gurney, avec la participation de Frank Podmore, tous trois membres de la Society for Psychical Research anglaise.
+Il arrive parfois, qu'en dehors de tout motif grave, des individus apparaissent à leurs proches, ou dans des lieux qui leur sont familiers, tout en étant physiquement à des distances considérables. Une telle aventure est survenue à Goethe : un jour qu'il se promenait sur une route avec un ami, il eut la surprise de rencontrer un autre ami du nom de Frédéric. Il l'interpella, mais celui-ci disparut sans répondre. De retour à son domicile, Goethe eut la surprise d'y trouver ledit Frédéric qui, assoupit, lui dit avoir rêvé leur rencontre sur la route.
+Ce phénomène de dédoublement est connu sous le nom de bilocation lorsqu'il concerne des mystiques, des bienheureux ou des saint tel le Padre Pio. Pour les ésotéristes, il pourrait s'agir de cas de dédoublement astral, le corps astral étant perçu exceptionnellement par des tiers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fantôme</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fant%C3%B4me</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Vision de son propre double</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un autre phénomène consiste en la vision de son propre corps sous la forme d'un double fantomatique fréquemment transparent. Cette hallucination est connue sous le nom allemand de Doppelgänger et est considérée en neurologie comme un phénomène autoscopique. Il semble que ce soit une expérience de ce type que relate Guy de Maupassant dans sa nouvelle Lui ?, présentée comme une lettre à un ami.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fantôme</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fant%C3%B4me</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Armées fantômes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>De nombreuses légendes circulent au sujet de prétendues armées de fantômes, se manifestant sur des champs de bataille ou des lieux au passé historique :
 deux mois après la bataille de Edgehill (octobre 1642), divers témoins dont des officiers du roi, affirmèrent avoir vu durant la nuit, à plusieurs reprises, les armées rejouer la bataille dans le ciel ;
 en 1915, se développa la légende des Anges de Mons, selon laquelle un groupe d'anges serait apparu aux soldats de l'armée britannique à la fin de la bataille de Mons en Belgique. Son origine est une nouvelle intitulée The Bowmen (Les archers), de l'écrivain fantastique Arthur Machen, publiée en septembre 1914 dans le quotidien London Evening News, qui est devenue le support d'une rumeur colportant qu'il s'agissait de faits réels ;
 Dans les années 1930, à Cadbury Hill, colline fortifiée située dans le Somerset, dans le Sud de l’Angleterre, et résidence possible d'un site d'un des chevaliers de la Table ronde, un jeune couple aurait assisté au défilé d'une troupe de cavaliers armés, s'éclairant avec des torches, qui disparurent subitement ;
-Dans la nuit du 2 janvier 1950, une conductrice fut victime d'un accident sur les rives d'un loch écossais. En terminant sa route à pied, elle vit des hommes vêtus de tuniques et de collants, tourner en rond à la lueur de torches. Une enquête ultérieure de la Society for Psychical Research conclut qu'elle avait peut-être assisté à la recherche des morts Pictes à l'issue de la bataille de Nechtansmere[46].
-Fantômes d'animaux
-Dans ses Mémoires d'outre-tombe, Chateaubriand fait état d'un chat noir qui hanterait l'escalier d'une tour du château de Combourg, appelée de ce fait « la tour du chat ». En 1876, lors de travaux de restauration, on découvrit dans un mur les restes desséchés d'un chat, probablement emmuré vivant au Moyen Âge pour conjurer le mauvais sort selon les coutumes de l'époque.
+Dans la nuit du 2 janvier 1950, une conductrice fut victime d'un accident sur les rives d'un loch écossais. En terminant sa route à pied, elle vit des hommes vêtus de tuniques et de collants, tourner en rond à la lueur de torches. Une enquête ultérieure de la Society for Psychical Research conclut qu'elle avait peut-être assisté à la recherche des morts Pictes à l'issue de la bataille de Nechtansmere.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fantôme</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fant%C3%B4me</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fantômes d'animaux</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ses Mémoires d'outre-tombe, Chateaubriand fait état d'un chat noir qui hanterait l'escalier d'une tour du château de Combourg, appelée de ce fait « la tour du chat ». En 1876, lors de travaux de restauration, on découvrit dans un mur les restes desséchés d'un chat, probablement emmuré vivant au Moyen Âge pour conjurer le mauvais sort selon les coutumes de l'époque.
 Le folklore anglo-saxon est riche en légendes concernant des fantômes de chiens noirs, presque toujours malveillants. C'est une d'elles, provenant du Dartmoor, qui aurait inspiré à Arthur Conan Doyle son roman Le Chien des Baskerville.
-Dans un de ses ouvrages, Jean Prieur relate une douzaine de témoignages de la manifestation post-mortem d'animaux familiers. Dans un de ceux-ci, une chienne sauvage nommée Polka se laissait caresser et nourrir par une famille, mais repartait ensuite loger dans une carrière au fond d'un bois. Un jour, la chienne disparut et l'on apprit qu'elle avait été gravement blessée par une voiture à la suite de quoi elle était probablement partie agoniser dans un fourré. Toutefois les trois membres de la famille continuèrent à entendre des gémissements et des grattements à leur porte sans voir l'animal. Intrigués, ils se rendirent à sa cachette habituelle et la découvrirent morte depuis plusieurs jours, avec auprès d'elle trois chiots nouveau-nés, dont un vivait encore[47].
-Ernest Bozzano, dans son livre Les phénomènes métapsychiques chez les animaux, relate 130 cas de manifestations surnaturelles liées à des chiens, des chats ou des chevaux. Parmi tous ces cas, nombreuses sont les apparitions de fantômes d'animaux, ou de fantômes détectés par ceux-ci. Ce dernier cas est très intéressant, selon lui, car il permet d'écarter toute subjectivité ou hallucination humaine dans la détection du fantôme[48].
+Dans un de ses ouvrages, Jean Prieur relate une douzaine de témoignages de la manifestation post-mortem d'animaux familiers. Dans un de ceux-ci, une chienne sauvage nommée Polka se laissait caresser et nourrir par une famille, mais repartait ensuite loger dans une carrière au fond d'un bois. Un jour, la chienne disparut et l'on apprit qu'elle avait été gravement blessée par une voiture à la suite de quoi elle était probablement partie agoniser dans un fourré. Toutefois les trois membres de la famille continuèrent à entendre des gémissements et des grattements à leur porte sans voir l'animal. Intrigués, ils se rendirent à sa cachette habituelle et la découvrirent morte depuis plusieurs jours, avec auprès d'elle trois chiots nouveau-nés, dont un vivait encore.
+Ernest Bozzano, dans son livre Les phénomènes métapsychiques chez les animaux, relate 130 cas de manifestations surnaturelles liées à des chiens, des chats ou des chevaux. Parmi tous ces cas, nombreuses sont les apparitions de fantômes d'animaux, ou de fantômes détectés par ceux-ci. Ce dernier cas est très intéressant, selon lui, car il permet d'écarter toute subjectivité ou hallucination humaine dans la détection du fantôme.
 Toujours selon Ernest Bozzano, dans son livre Les phénomènes de hantise, il recense neuf cas de fantômes d'animaux, tout en notant :
-« on comprendra que les fantômes d’animaux présentent rarement la même valeur probante que ceux d’êtres humains, soit parce qu’on peut plus difficilement les séparer des fantômes purement hallucinatoires, soit parce qu’il n’est pas toujours facile d’exclure que les percipients se soient trompés, en prenant des animaux vivants pour des fantômes d’animaux[49]. » Pour mémoire, on peut citer également les chasses fantastiques qui associent les fantômes des composantes classiques des chasses à courre : cavaliers, chevaux et meutes de chiens.
-Moyens de transport
-Il existe de nombreux récits relatant des phénomènes de hantise, réels ou légendaires, survenus à bord de bateaux, de trains, d'avions et même de sous-marins. Mais il arrive aussi parfois que ce soit les véhicules eux-mêmes qui se comportent comme des fantômes[50].
-Vaisseaux fantômes
-Un vaisseau fantôme est un navire maudit qui, selon la légende, est condamné à errer sur les océans, conduit par un équipage de squelettes et de fantômes. Le plus célèbre des vaisseaux fantômes est le Hollandais volant, jadis appelé quelquefois Le voltigeur hollandais[51], également connu sous les noms anglais The Flying Dutchman[52] ou allemand Der fliegende Holländer, ce dernier étant le titre original du premier des dix opéras majeurs[53] de Richard Wagner.
+« on comprendra que les fantômes d’animaux présentent rarement la même valeur probante que ceux d’êtres humains, soit parce qu’on peut plus difficilement les séparer des fantômes purement hallucinatoires, soit parce qu’il n’est pas toujours facile d’exclure que les percipients se soient trompés, en prenant des animaux vivants pour des fantômes d’animaux. » Pour mémoire, on peut citer également les chasses fantastiques qui associent les fantômes des composantes classiques des chasses à courre : cavaliers, chevaux et meutes de chiens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fantôme</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fant%C3%B4me</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Moyens de transport</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe de nombreux récits relatant des phénomènes de hantise, réels ou légendaires, survenus à bord de bateaux, de trains, d'avions et même de sous-marins. Mais il arrive aussi parfois que ce soit les véhicules eux-mêmes qui se comportent comme des fantômes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fantôme</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fant%C3%B4me</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Moyens de transport</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Vaisseaux fantômes</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un vaisseau fantôme est un navire maudit qui, selon la légende, est condamné à errer sur les océans, conduit par un équipage de squelettes et de fantômes. Le plus célèbre des vaisseaux fantômes est le Hollandais volant, jadis appelé quelquefois Le voltigeur hollandais, également connu sous les noms anglais The Flying Dutchman ou allemand Der fliegende Holländer, ce dernier étant le titre original du premier des dix opéras majeurs de Richard Wagner.
 Il en existe d'autres, tels le Vaisseau fantôme de la baie des Chaleurs au Canada ou le Caleuche, vaisseau fantôme appartenant au folklore de l'archipel des îles Chiloé au Chili ou encore le Princess Augusta près de l'île américaine de Block Island, près de New York aux États-Unis.
 On connaît aussi de nombreuses traditions, notamment celtiques, concernant des barques peuplées de défunts.
-Trains fantômes
-Les trains fantômes ne sont pas uniquement des attractions de fête foraine. Plusieurs légendes rapportent la présence d'« authentiques » trains spectraux.
-À la suite de la grande émotion populaire suscitée par l'assassinat du président Abraham Lincoln en 1865, sa dépouille mortelle fut transportée jusqu'à sa sépulture, située dans l'Illinois, à bord d'un train spécial drapé de noir qui fit un très long détour pour qu'un grand nombre de personnes, massées sur son passage, puissent lui rendre un dernier hommage[54]. Depuis lors, la légende court qu'on peut parfois le voir passer, surtout la nuit ; il ne s'arrête pas dans les gares qu'il traverse, mais les horloges stoppent à sa venue[55],[56]. Une description en a été publiée dans le journal Albany Time : « il passe sans un bruit. S'il y a un clair de Lune, des nuages viennent couvrir la Lune pendant que le train fantôme suit sa route. Après le passage de la locomotive, le train funèbre défile lui-même, avec drapeaux et banderoles. La voie semble couverte d'un tapis noir et le cercueil est visible au centre de la voiture, tandis que tout autour de lui, dans les airs et dans le train derrière, se trouvent un grand nombre d'hommes en bleu, certains avec des cercueils sur le dos, d'autres s'appuyant dessus[57]. »
-Dans la nuit du 28 décembre 1879, eut lieu la catastrophe ferroviaire du pont sur le Tay. Au cours d'une terrible tempête, le train de nuit reliant Édimbourg à Dundee dérailla en passant sur le très long pont surplombant le fleuve Tay en Écosse, entraînant la chute de 13 travées. Il n'y eut aucun survivant parmi les 75 passagers. Peu de temps après le drame, on prétendit que de nombreux fantômes hantaient les alentours. Le pont fut reconstruit en 1887 et le trafic ferroviaire fut rétabli mais, un 28 décembre quelques années plus tard, on observa le passage à vive allure d'un train non programmé qui disparut une fois arrivé au milieu du pont[56].
-Avions fantômes
-Les sites où se sont produits la chute d'avions victimes de catastrophes aériennes seraient parfois survolés par des appareils fantômes. Après la fin de la Seconde Guerre mondiale, un spitfire qui avait été abattu pendant les hostilités, aurait été souvent vu au-dessus du terrain d'aviation de Biggin Hill près de Londres, ancienne base de la Royal Air Force. Par les nuits d'orage, un avion fantôme survolerait la ville de Weybridge dans le Surrey en Angleterre, lieu où il s'est abattu durant une tempête en 1965[58].
-Autobus fantôme
-Dans les années 1930 à Londres, un des célèbres bus rouge à impériale, portant le No 7, aurait provoqué de nombreux accrochages et au moins un accident mortel. Tôt le matin, il fonçait sur les automobilistes, au carrefour de Saint Mark's Road et de Cambridge Gardens, près la station de métro de Ladbroke Grove, avant de disparaître mystérieusement. Le phénomène aurait disparu rapidement après que les autorités eurent rectifié le tracé du carrefour[59],[60].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Fant%C3%B4me</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fant%C3%B4me</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Fantôme</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fant%C3%B4me</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Moyens de transport</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Trains fantômes</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les trains fantômes ne sont pas uniquement des attractions de fête foraine. Plusieurs légendes rapportent la présence d'« authentiques » trains spectraux.
+À la suite de la grande émotion populaire suscitée par l'assassinat du président Abraham Lincoln en 1865, sa dépouille mortelle fut transportée jusqu'à sa sépulture, située dans l'Illinois, à bord d'un train spécial drapé de noir qui fit un très long détour pour qu'un grand nombre de personnes, massées sur son passage, puissent lui rendre un dernier hommage. Depuis lors, la légende court qu'on peut parfois le voir passer, surtout la nuit ; il ne s'arrête pas dans les gares qu'il traverse, mais les horloges stoppent à sa venue,. Une description en a été publiée dans le journal Albany Time : « il passe sans un bruit. S'il y a un clair de Lune, des nuages viennent couvrir la Lune pendant que le train fantôme suit sa route. Après le passage de la locomotive, le train funèbre défile lui-même, avec drapeaux et banderoles. La voie semble couverte d'un tapis noir et le cercueil est visible au centre de la voiture, tandis que tout autour de lui, dans les airs et dans le train derrière, se trouvent un grand nombre d'hommes en bleu, certains avec des cercueils sur le dos, d'autres s'appuyant dessus. »
+Dans la nuit du 28 décembre 1879, eut lieu la catastrophe ferroviaire du pont sur le Tay. Au cours d'une terrible tempête, le train de nuit reliant Édimbourg à Dundee dérailla en passant sur le très long pont surplombant le fleuve Tay en Écosse, entraînant la chute de 13 travées. Il n'y eut aucun survivant parmi les 75 passagers. Peu de temps après le drame, on prétendit que de nombreux fantômes hantaient les alentours. Le pont fut reconstruit en 1887 et le trafic ferroviaire fut rétabli mais, un 28 décembre quelques années plus tard, on observa le passage à vive allure d'un train non programmé qui disparut une fois arrivé au milieu du pont.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fantôme</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fant%C3%B4me</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Moyens de transport</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Avions fantômes</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sites où se sont produits la chute d'avions victimes de catastrophes aériennes seraient parfois survolés par des appareils fantômes. Après la fin de la Seconde Guerre mondiale, un spitfire qui avait été abattu pendant les hostilités, aurait été souvent vu au-dessus du terrain d'aviation de Biggin Hill près de Londres, ancienne base de la Royal Air Force. Par les nuits d'orage, un avion fantôme survolerait la ville de Weybridge dans le Surrey en Angleterre, lieu où il s'est abattu durant une tempête en 1965.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Fantôme</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fant%C3%B4me</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Moyens de transport</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Autobus fantôme</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1930 à Londres, un des célèbres bus rouge à impériale, portant le No 7, aurait provoqué de nombreux accrochages et au moins un accident mortel. Tôt le matin, il fonçait sur les automobilistes, au carrefour de Saint Mark's Road et de Cambridge Gardens, près la station de métro de Ladbroke Grove, avant de disparaître mystérieusement. Le phénomène aurait disparu rapidement après que les autorités eurent rectifié le tracé du carrefour,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Fantôme</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fant%C3%B4me</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Témoignages et preuves matérielles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La presque totalité des apparitions de fantômes ne sont connues que par les récits du ou des témoins, souvent repris d'ouvrage en ouvrage sans vérification. Dans nombre de cas, le récit est tenu d'un tiers, comme l'indique très honnêtement Pline le Jeune dans son célèbre récit : « Cette histoire, je la crois sur la foi d'autrui. ». D'ailleurs Pline semble n'être guère convaincu, car le récit s’insère dans la question qu'il pose à son ami sur le sujet : 
-« Je voudrais donc bien savoir si vous pensez que les fantômes sont quelque chose de réel, s'ils ont une forme qui leur soit propre, si vous leur attribuez une puissance divine, ou si ce ne sont que de vaines images qui tracent dans une imagination troublée par la crainte[61]. »
-De ce fait, la preuve de leur authenticité est problématique. Certaines histoires relèvent clairement du folklore ou de la légende, sans que l'origine du mythe puisse être connue[62]. Pour d'autres, la qualité des témoins suggère que leur récit est recevable, tout en tenant compte des possibilités d'illusions ou d'hallucinations. S'y ajoutent évidemment les dérèglements psychologiques et psychiatriques, les inventions, les canulars et autres supercheries.
+« Je voudrais donc bien savoir si vous pensez que les fantômes sont quelque chose de réel, s'ils ont une forme qui leur soit propre, si vous leur attribuez une puissance divine, ou si ce ne sont que de vaines images qui tracent dans une imagination troublée par la crainte. »
+De ce fait, la preuve de leur authenticité est problématique. Certaines histoires relèvent clairement du folklore ou de la légende, sans que l'origine du mythe puisse être connue. Pour d'autres, la qualité des témoins suggère que leur récit est recevable, tout en tenant compte des possibilités d'illusions ou d'hallucinations. S'y ajoutent évidemment les dérèglements psychologiques et psychiatriques, les inventions, les canulars et autres supercheries.
 Nombre de témoignages ont été transmis par des lettres de prétendus témoins ou de proches des narrateurs. La quasi-totalité des nombreux exemples cités par Camille Flammarion dans ses ouvrages sur les manifestations post-mortem sont tirés des milliers de lettres reçues sans vérification. Comme l'indique Anne Jaffé, disciple de Jung : 
-« Ces lettres ne peuvent pas, en elles-mêmes, être considérées comme contributions à la science [sic] de la parapsychologie telle qu'elle est pratiquée aujourd'hui[63]. »
+« Ces lettres ne peuvent pas, en elles-mêmes, être considérées comme contributions à la science [sic] de la parapsychologie telle qu'elle est pratiquée aujourd'hui. »
 </t>
         </is>
       </c>
